--- a/roaster/output/output.xlsx
+++ b/roaster/output/output.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###\-###\-####"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <name val="Cambria"/>
       <color theme="1"/>
@@ -127,10 +127,6 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <name val="Cambria"/>
       <color rgb="00000000"/>
       <sz val="10"/>
@@ -197,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="45">
     <border/>
     <border>
       <left style="thin">
@@ -556,25 +552,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -803,19 +785,22 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2211,17 +2196,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J25" s="105" t="inlineStr">
+      <c r="J25" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K25" s="105" t="inlineStr">
+      <c r="K25" s="106" t="inlineStr">
         <is>
           <t>PU-3936</t>
         </is>
       </c>
-      <c r="L25" s="106" t="inlineStr">
+      <c r="L25" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2276,17 +2261,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J26" s="105" t="inlineStr">
+      <c r="J26" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K26" s="105" t="inlineStr">
+      <c r="K26" s="106" t="inlineStr">
         <is>
           <t>PU-5135</t>
         </is>
       </c>
-      <c r="L26" s="106" t="inlineStr">
+      <c r="L26" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2341,17 +2326,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J27" s="105" t="inlineStr">
+      <c r="J27" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K27" s="105" t="inlineStr">
+      <c r="K27" s="106" t="inlineStr">
         <is>
           <t>BT-9888</t>
         </is>
       </c>
-      <c r="L27" s="106" t="inlineStr">
+      <c r="L27" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2406,17 +2391,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J28" s="105" t="inlineStr">
+      <c r="J28" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K28" s="105" t="inlineStr">
+      <c r="K28" s="106" t="inlineStr">
         <is>
           <t>BT-9887</t>
         </is>
       </c>
-      <c r="L28" s="106" t="inlineStr">
+      <c r="L28" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2471,17 +2456,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J29" s="105" t="inlineStr">
+      <c r="J29" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K29" s="105" t="inlineStr">
+      <c r="K29" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L29" s="106" t="inlineStr">
+      <c r="L29" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2536,17 +2521,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J30" s="105" t="inlineStr">
+      <c r="J30" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K30" s="105" t="inlineStr">
+      <c r="K30" s="106" t="inlineStr">
         <is>
           <t>PU-2174</t>
         </is>
       </c>
-      <c r="L30" s="106" t="inlineStr">
+      <c r="L30" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2601,17 +2586,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J31" s="105" t="inlineStr">
+      <c r="J31" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K31" s="105" t="inlineStr">
+      <c r="K31" s="106" t="inlineStr">
         <is>
           <t>BT-9414</t>
         </is>
       </c>
-      <c r="L31" s="106" t="inlineStr">
+      <c r="L31" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2666,17 +2651,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J32" s="105" t="inlineStr">
+      <c r="J32" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K32" s="105" t="inlineStr">
+      <c r="K32" s="106" t="inlineStr">
         <is>
           <t>DD-8673</t>
         </is>
       </c>
-      <c r="L32" s="106" t="inlineStr">
+      <c r="L32" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2731,17 +2716,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J33" s="105" t="inlineStr">
+      <c r="J33" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K33" s="105" t="inlineStr">
+      <c r="K33" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L33" s="106" t="inlineStr">
+      <c r="L33" s="107" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2796,17 +2781,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J34" s="105" t="inlineStr">
+      <c r="J34" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K34" s="105" t="inlineStr">
+      <c r="K34" s="106" t="inlineStr">
         <is>
           <t>PU-4442</t>
         </is>
       </c>
-      <c r="L34" s="106" t="inlineStr">
+      <c r="L34" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2861,17 +2846,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J35" s="105" t="inlineStr">
+      <c r="J35" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K35" s="105" t="inlineStr">
+      <c r="K35" s="106" t="inlineStr">
         <is>
           <t>BT-8989</t>
         </is>
       </c>
-      <c r="L35" s="106" t="inlineStr">
+      <c r="L35" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2926,17 +2911,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J36" s="105" t="inlineStr">
+      <c r="J36" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K36" s="105" t="inlineStr">
+      <c r="K36" s="106" t="inlineStr">
         <is>
           <t>DD-6388</t>
         </is>
       </c>
-      <c r="L36" s="106" t="inlineStr">
+      <c r="L36" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2991,17 +2976,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J37" s="105" t="inlineStr">
+      <c r="J37" s="106" t="inlineStr">
         <is>
           <t>Rear Property Machine</t>
         </is>
       </c>
-      <c r="K37" s="105" t="inlineStr">
+      <c r="K37" s="106" t="inlineStr">
         <is>
           <t>BYM-2922</t>
         </is>
       </c>
-      <c r="L37" s="106" t="inlineStr">
+      <c r="L37" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3056,17 +3041,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J38" s="105" t="inlineStr">
+      <c r="J38" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K38" s="105" t="inlineStr">
+      <c r="K38" s="106" t="inlineStr">
         <is>
           <t>PU-5803</t>
         </is>
       </c>
-      <c r="L38" s="106" t="inlineStr">
+      <c r="L38" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3121,17 +3106,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J39" s="105" t="inlineStr">
+      <c r="J39" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K39" s="105" t="inlineStr">
+      <c r="K39" s="106" t="inlineStr">
         <is>
           <t>BT-8988</t>
         </is>
       </c>
-      <c r="L39" s="106" t="inlineStr">
+      <c r="L39" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3186,17 +3171,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J40" s="105" t="inlineStr">
+      <c r="J40" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K40" s="105" t="inlineStr">
+      <c r="K40" s="106" t="inlineStr">
         <is>
           <t>DD-5319</t>
         </is>
       </c>
-      <c r="L40" s="106" t="inlineStr">
+      <c r="L40" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3251,17 +3236,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J41" s="105" t="inlineStr">
+      <c r="J41" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K41" s="105" t="inlineStr">
+      <c r="K41" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L41" s="106" t="inlineStr">
+      <c r="L41" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3316,17 +3301,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J42" s="105" t="inlineStr">
+      <c r="J42" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K42" s="105" t="inlineStr">
+      <c r="K42" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L42" s="106" t="inlineStr">
+      <c r="L42" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3381,17 +3366,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J43" s="105" t="inlineStr">
+      <c r="J43" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K43" s="105" t="inlineStr">
+      <c r="K43" s="106" t="inlineStr">
         <is>
           <t>BT-1184</t>
         </is>
       </c>
-      <c r="L43" s="106" t="inlineStr">
+      <c r="L43" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3446,17 +3431,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J44" s="105" t="inlineStr">
+      <c r="J44" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K44" s="105" t="inlineStr">
+      <c r="K44" s="106" t="inlineStr">
         <is>
           <t>BT-8403</t>
         </is>
       </c>
-      <c r="L44" s="106" t="inlineStr">
+      <c r="L44" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3511,17 +3496,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J45" s="105" t="inlineStr">
+      <c r="J45" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K45" s="105" t="inlineStr">
+      <c r="K45" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L45" s="106" t="inlineStr">
+      <c r="L45" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3576,17 +3561,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J46" s="105" t="inlineStr">
+      <c r="J46" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K46" s="105" t="inlineStr">
+      <c r="K46" s="106" t="inlineStr">
         <is>
           <t>PU-4585</t>
         </is>
       </c>
-      <c r="L46" s="106" t="inlineStr">
+      <c r="L46" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3641,17 +3626,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J47" s="105" t="inlineStr">
+      <c r="J47" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K47" s="105" t="inlineStr">
+      <c r="K47" s="106" t="inlineStr">
         <is>
           <t>BT-7917</t>
         </is>
       </c>
-      <c r="L47" s="106" t="inlineStr">
+      <c r="L47" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3706,17 +3691,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J48" s="105" t="inlineStr">
+      <c r="J48" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K48" s="105" t="inlineStr">
+      <c r="K48" s="106" t="inlineStr">
         <is>
           <t>DD-5637</t>
         </is>
       </c>
-      <c r="L48" s="106" t="inlineStr">
+      <c r="L48" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3771,17 +3756,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J49" s="105" t="inlineStr">
+      <c r="J49" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K49" s="105" t="inlineStr">
+      <c r="K49" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L49" s="106" t="inlineStr">
+      <c r="L49" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3836,17 +3821,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J50" s="105" t="inlineStr">
+      <c r="J50" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K50" s="105" t="inlineStr">
+      <c r="K50" s="106" t="inlineStr">
         <is>
           <t>PU-3098</t>
         </is>
       </c>
-      <c r="L50" s="106" t="inlineStr">
+      <c r="L50" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3901,17 +3886,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J51" s="105" t="inlineStr">
+      <c r="J51" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K51" s="105" t="inlineStr">
+      <c r="K51" s="106" t="inlineStr">
         <is>
           <t>BT-7663</t>
         </is>
       </c>
-      <c r="L51" s="106" t="inlineStr">
+      <c r="L51" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -3966,17 +3951,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J52" s="105" t="inlineStr">
+      <c r="J52" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K52" s="105" t="inlineStr">
+      <c r="K52" s="106" t="inlineStr">
         <is>
           <t>BT-6948</t>
         </is>
       </c>
-      <c r="L52" s="106" t="inlineStr">
+      <c r="L52" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4031,17 +4016,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J53" s="105" t="inlineStr">
+      <c r="J53" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K53" s="105" t="inlineStr">
+      <c r="K53" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L53" s="106" t="inlineStr">
+      <c r="L53" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4096,17 +4081,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J54" s="105" t="inlineStr">
+      <c r="J54" s="106" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K54" s="105" t="inlineStr">
+      <c r="K54" s="106" t="inlineStr">
         <is>
           <t>ST-3304</t>
         </is>
       </c>
-      <c r="L54" s="106" t="inlineStr">
+      <c r="L54" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4161,17 +4146,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J55" s="105" t="inlineStr">
+      <c r="J55" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K55" s="105" t="inlineStr">
+      <c r="K55" s="106" t="inlineStr">
         <is>
           <t>PU-3347</t>
         </is>
       </c>
-      <c r="L55" s="106" t="inlineStr">
+      <c r="L55" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4226,17 +4211,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J56" s="105" t="inlineStr">
+      <c r="J56" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K56" s="105" t="inlineStr">
+      <c r="K56" s="106" t="inlineStr">
         <is>
           <t>PU-8895</t>
         </is>
       </c>
-      <c r="L56" s="106" t="inlineStr">
+      <c r="L56" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4291,17 +4276,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J57" s="105" t="inlineStr">
+      <c r="J57" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K57" s="105" t="inlineStr">
+      <c r="K57" s="106" t="inlineStr">
         <is>
           <t>PU-9355</t>
         </is>
       </c>
-      <c r="L57" s="106" t="inlineStr">
+      <c r="L57" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4356,17 +4341,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J58" s="105" t="inlineStr">
+      <c r="J58" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K58" s="105" t="inlineStr">
+      <c r="K58" s="106" t="inlineStr">
         <is>
           <t>BT-6082</t>
         </is>
       </c>
-      <c r="L58" s="106" t="inlineStr">
+      <c r="L58" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4421,17 +4406,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J59" s="105" t="inlineStr">
+      <c r="J59" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K59" s="105" t="inlineStr">
+      <c r="K59" s="106" t="inlineStr">
         <is>
           <t>DD-8957</t>
         </is>
       </c>
-      <c r="L59" s="106" t="inlineStr">
+      <c r="L59" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4486,17 +4471,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J60" s="105" t="inlineStr">
+      <c r="J60" s="106" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K60" s="105" t="inlineStr">
+      <c r="K60" s="106" t="inlineStr">
         <is>
           <t>PT-CO25</t>
         </is>
       </c>
-      <c r="L60" s="106" t="inlineStr">
+      <c r="L60" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4551,17 +4536,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J61" s="105" t="inlineStr">
+      <c r="J61" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K61" s="105" t="inlineStr">
+      <c r="K61" s="106" t="inlineStr">
         <is>
           <t>PU-8895</t>
         </is>
       </c>
-      <c r="L61" s="106" t="inlineStr">
+      <c r="L61" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4616,17 +4601,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J62" s="105" t="inlineStr">
+      <c r="J62" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K62" s="105" t="inlineStr">
+      <c r="K62" s="106" t="inlineStr">
         <is>
           <t>BT-5899</t>
         </is>
       </c>
-      <c r="L62" s="106" t="inlineStr">
+      <c r="L62" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4681,17 +4666,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J63" s="105" t="inlineStr">
+      <c r="J63" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K63" s="105" t="inlineStr">
+      <c r="K63" s="106" t="inlineStr">
         <is>
           <t>DD-8670</t>
         </is>
       </c>
-      <c r="L63" s="106" t="inlineStr">
+      <c r="L63" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4746,17 +4731,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J64" s="105" t="inlineStr">
+      <c r="J64" s="106" t="inlineStr">
         <is>
           <t>Rear Property Machine</t>
         </is>
       </c>
-      <c r="K64" s="105" t="inlineStr">
+      <c r="K64" s="106" t="inlineStr">
         <is>
           <t>BYM-0009</t>
         </is>
       </c>
-      <c r="L64" s="106" t="inlineStr">
+      <c r="L64" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4811,17 +4796,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J65" s="105" t="inlineStr">
+      <c r="J65" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K65" s="105" t="inlineStr">
+      <c r="K65" s="106" t="inlineStr">
         <is>
           <t>PU-1698</t>
         </is>
       </c>
-      <c r="L65" s="106" t="inlineStr">
+      <c r="L65" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4876,17 +4861,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J66" s="105" t="inlineStr">
+      <c r="J66" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K66" s="105" t="inlineStr">
+      <c r="K66" s="106" t="inlineStr">
         <is>
           <t>BT-5378</t>
         </is>
       </c>
-      <c r="L66" s="106" t="inlineStr">
+      <c r="L66" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -4941,17 +4926,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J67" s="105" t="inlineStr">
+      <c r="J67" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K67" s="105" t="inlineStr">
+      <c r="K67" s="106" t="inlineStr">
         <is>
           <t>DD-6230</t>
         </is>
       </c>
-      <c r="L67" s="106" t="inlineStr">
+      <c r="L67" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5006,17 +4991,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J68" s="105" t="inlineStr">
+      <c r="J68" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K68" s="105" t="inlineStr">
+      <c r="K68" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L68" s="106" t="inlineStr">
+      <c r="L68" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5071,17 +5056,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J69" s="105" t="inlineStr">
+      <c r="J69" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K69" s="105" t="inlineStr">
+      <c r="K69" s="106" t="inlineStr">
         <is>
           <t>PU-3513</t>
         </is>
       </c>
-      <c r="L69" s="106" t="inlineStr">
+      <c r="L69" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5136,17 +5121,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J70" s="105" t="inlineStr">
+      <c r="J70" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K70" s="105" t="inlineStr">
+      <c r="K70" s="106" t="inlineStr">
         <is>
           <t>BT-3694</t>
         </is>
       </c>
-      <c r="L70" s="106" t="inlineStr">
+      <c r="L70" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5201,17 +5186,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J71" s="105" t="inlineStr">
+      <c r="J71" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K71" s="105" t="inlineStr">
+      <c r="K71" s="106" t="inlineStr">
         <is>
           <t>DD-3017</t>
         </is>
       </c>
-      <c r="L71" s="106" t="inlineStr">
+      <c r="L71" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5266,17 +5251,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J72" s="105" t="inlineStr">
+      <c r="J72" s="106" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K72" s="105" t="inlineStr">
+      <c r="K72" s="106" t="inlineStr">
         <is>
           <t>BO10</t>
         </is>
       </c>
-      <c r="L72" s="106" t="inlineStr">
+      <c r="L72" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5331,17 +5316,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J73" s="105" t="inlineStr">
+      <c r="J73" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K73" s="105" t="inlineStr">
+      <c r="K73" s="106" t="inlineStr">
         <is>
           <t>PU-3103</t>
         </is>
       </c>
-      <c r="L73" s="106" t="inlineStr">
+      <c r="L73" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5396,17 +5381,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J74" s="105" t="inlineStr">
+      <c r="J74" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K74" s="105" t="inlineStr">
+      <c r="K74" s="106" t="inlineStr">
         <is>
           <t>BT-3122</t>
         </is>
       </c>
-      <c r="L74" s="106" t="inlineStr">
+      <c r="L74" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5461,17 +5446,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J75" s="105" t="inlineStr">
+      <c r="J75" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K75" s="105" t="inlineStr">
+      <c r="K75" s="106" t="inlineStr">
         <is>
           <t>BT-2567</t>
         </is>
       </c>
-      <c r="L75" s="106" t="inlineStr">
+      <c r="L75" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5526,17 +5511,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J76" s="105" t="inlineStr">
+      <c r="J76" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K76" s="105" t="inlineStr">
+      <c r="K76" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L76" s="106" t="inlineStr">
+      <c r="L76" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5591,17 +5576,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J77" s="105" t="inlineStr">
+      <c r="J77" s="106" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K77" s="105" t="inlineStr">
+      <c r="K77" s="106" t="inlineStr">
         <is>
           <t>ST-2055</t>
         </is>
       </c>
-      <c r="L77" s="106" t="inlineStr">
+      <c r="L77" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5656,17 +5641,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J78" s="105" t="inlineStr">
+      <c r="J78" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K78" s="105" t="inlineStr">
+      <c r="K78" s="106" t="inlineStr">
         <is>
           <t>PU-51'</t>
         </is>
       </c>
-      <c r="L78" s="106" t="inlineStr">
+      <c r="L78" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5721,17 +5706,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J79" s="105" t="inlineStr">
+      <c r="J79" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K79" s="105" t="inlineStr">
+      <c r="K79" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L79" s="106" t="inlineStr">
+      <c r="L79" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5786,17 +5771,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J80" s="105" t="inlineStr">
+      <c r="J80" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K80" s="105" t="inlineStr">
+      <c r="K80" s="106" t="inlineStr">
         <is>
           <t>PU-8724</t>
         </is>
       </c>
-      <c r="L80" s="106" t="inlineStr">
+      <c r="L80" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5851,17 +5836,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J81" s="105" t="inlineStr">
+      <c r="J81" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K81" s="105" t="inlineStr">
+      <c r="K81" s="106" t="inlineStr">
         <is>
           <t>BT-2565</t>
         </is>
       </c>
-      <c r="L81" s="106" t="inlineStr">
+      <c r="L81" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5916,17 +5901,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J82" s="105" t="inlineStr">
+      <c r="J82" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K82" s="105" t="inlineStr">
+      <c r="K82" s="106" t="inlineStr">
         <is>
           <t>DD-4664</t>
         </is>
       </c>
-      <c r="L82" s="106" t="inlineStr">
+      <c r="L82" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -5981,17 +5966,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J83" s="105" t="inlineStr">
+      <c r="J83" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K83" s="105" t="inlineStr">
+      <c r="K83" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L83" s="106" t="inlineStr">
+      <c r="L83" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6046,17 +6031,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J84" s="105" t="inlineStr">
+      <c r="J84" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K84" s="105" t="inlineStr">
+      <c r="K84" s="106" t="inlineStr">
         <is>
           <t>PU-4727</t>
         </is>
       </c>
-      <c r="L84" s="106" t="inlineStr">
+      <c r="L84" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6111,17 +6096,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J85" s="105" t="inlineStr">
+      <c r="J85" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K85" s="105" t="inlineStr">
+      <c r="K85" s="106" t="inlineStr">
         <is>
           <t>BT-9891</t>
         </is>
       </c>
-      <c r="L85" s="106" t="inlineStr">
+      <c r="L85" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6176,17 +6161,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J86" s="105" t="inlineStr">
+      <c r="J86" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K86" s="105" t="inlineStr">
+      <c r="K86" s="106" t="inlineStr">
         <is>
           <t>DD-4184</t>
         </is>
       </c>
-      <c r="L86" s="106" t="inlineStr">
+      <c r="L86" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6241,17 +6226,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J87" s="105" t="inlineStr">
+      <c r="J87" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K87" s="105" t="inlineStr">
+      <c r="K87" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L87" s="106" t="inlineStr">
+      <c r="L87" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6306,17 +6291,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J88" s="105" t="inlineStr">
+      <c r="J88" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K88" s="105" t="inlineStr">
+      <c r="K88" s="106" t="inlineStr">
         <is>
           <t>PU-8024</t>
         </is>
       </c>
-      <c r="L88" s="106" t="inlineStr">
+      <c r="L88" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6371,17 +6356,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J89" s="105" t="inlineStr">
+      <c r="J89" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K89" s="105" t="inlineStr">
+      <c r="K89" s="106" t="inlineStr">
         <is>
           <t>BT-9889</t>
         </is>
       </c>
-      <c r="L89" s="106" t="inlineStr">
+      <c r="L89" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6436,17 +6421,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J90" s="105" t="inlineStr">
+      <c r="J90" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K90" s="105" t="inlineStr">
+      <c r="K90" s="106" t="inlineStr">
         <is>
           <t>DD-5911</t>
         </is>
       </c>
-      <c r="L90" s="106" t="inlineStr">
+      <c r="L90" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6501,17 +6486,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J91" s="105" t="inlineStr">
+      <c r="J91" s="106" t="inlineStr">
         <is>
           <t>Rear Property Machine</t>
         </is>
       </c>
-      <c r="K91" s="105" t="inlineStr">
+      <c r="K91" s="106" t="inlineStr">
         <is>
           <t>BYM-3294</t>
         </is>
       </c>
-      <c r="L91" s="106" t="inlineStr">
+      <c r="L91" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6566,17 +6551,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J92" s="105" t="inlineStr">
+      <c r="J92" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K92" s="105" t="inlineStr">
+      <c r="K92" s="106" t="inlineStr">
         <is>
           <t>PU-15</t>
         </is>
       </c>
-      <c r="L92" s="106" t="inlineStr">
+      <c r="L92" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6631,17 +6616,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J93" s="105" t="inlineStr">
+      <c r="J93" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K93" s="105" t="inlineStr">
+      <c r="K93" s="106" t="inlineStr">
         <is>
           <t>BT-9618</t>
         </is>
       </c>
-      <c r="L93" s="106" t="inlineStr">
+      <c r="L93" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6696,17 +6681,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J94" s="105" t="inlineStr">
+      <c r="J94" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K94" s="105" t="inlineStr">
+      <c r="K94" s="106" t="inlineStr">
         <is>
           <t>DD-0935</t>
         </is>
       </c>
-      <c r="L94" s="106" t="inlineStr">
+      <c r="L94" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6761,17 +6746,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J95" s="105" t="inlineStr">
+      <c r="J95" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K95" s="105" t="inlineStr">
+      <c r="K95" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L95" s="106" t="inlineStr">
+      <c r="L95" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6826,17 +6811,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J96" s="105" t="inlineStr">
+      <c r="J96" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K96" s="105" t="inlineStr">
+      <c r="K96" s="106" t="inlineStr">
         <is>
           <t>PU-8059</t>
         </is>
       </c>
-      <c r="L96" s="106" t="inlineStr">
+      <c r="L96" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6891,17 +6876,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J97" s="105" t="inlineStr">
+      <c r="J97" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K97" s="105" t="inlineStr">
+      <c r="K97" s="106" t="inlineStr">
         <is>
           <t>BT-9610</t>
         </is>
       </c>
-      <c r="L97" s="106" t="inlineStr">
+      <c r="L97" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6956,17 +6941,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J98" s="105" t="inlineStr">
+      <c r="J98" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K98" s="105" t="inlineStr">
+      <c r="K98" s="106" t="inlineStr">
         <is>
           <t>DD-9654</t>
         </is>
       </c>
-      <c r="L98" s="106" t="inlineStr">
+      <c r="L98" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7021,17 +7006,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J99" s="105" t="inlineStr">
+      <c r="J99" s="106" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K99" s="105" t="inlineStr">
+      <c r="K99" s="106" t="inlineStr">
         <is>
           <t>PT-5571</t>
         </is>
       </c>
-      <c r="L99" s="106" t="inlineStr">
+      <c r="L99" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7086,17 +7071,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J100" s="105" t="inlineStr">
+      <c r="J100" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K100" s="105" t="inlineStr">
+      <c r="K100" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L100" s="106" t="inlineStr">
+      <c r="L100" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7151,17 +7136,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J101" s="105" t="inlineStr">
+      <c r="J101" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K101" s="105" t="inlineStr">
+      <c r="K101" s="106" t="inlineStr">
         <is>
           <t>BT-9617</t>
         </is>
       </c>
-      <c r="L101" s="106" t="inlineStr">
+      <c r="L101" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7216,17 +7201,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J102" s="105" t="inlineStr">
+      <c r="J102" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K102" s="105" t="inlineStr">
+      <c r="K102" s="106" t="inlineStr">
         <is>
           <t>DD-1334</t>
         </is>
       </c>
-      <c r="L102" s="106" t="inlineStr">
+      <c r="L102" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7281,17 +7266,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J103" s="105" t="inlineStr">
+      <c r="J103" s="106" t="inlineStr">
         <is>
           <t>Rear Property Machine</t>
         </is>
       </c>
-      <c r="K103" s="105" t="inlineStr">
+      <c r="K103" s="106" t="inlineStr">
         <is>
           <t>BYM-3282</t>
         </is>
       </c>
-      <c r="L103" s="106" t="inlineStr">
+      <c r="L103" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7346,17 +7331,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J104" s="105" t="inlineStr">
+      <c r="J104" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K104" s="105" t="inlineStr">
+      <c r="K104" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L104" s="106" t="inlineStr">
+      <c r="L104" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7411,17 +7396,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J105" s="105" t="inlineStr">
+      <c r="J105" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K105" s="105" t="inlineStr">
+      <c r="K105" s="106" t="inlineStr">
         <is>
           <t>BT-9892</t>
         </is>
       </c>
-      <c r="L105" s="106" t="inlineStr">
+      <c r="L105" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7476,17 +7461,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J106" s="105" t="inlineStr">
+      <c r="J106" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K106" s="105" t="inlineStr">
+      <c r="K106" s="106" t="inlineStr">
         <is>
           <t>DD-0440</t>
         </is>
       </c>
-      <c r="L106" s="106" t="inlineStr">
+      <c r="L106" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7541,17 +7526,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J107" s="105" t="inlineStr">
+      <c r="J107" s="106" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K107" s="105" t="inlineStr">
+      <c r="K107" s="106" t="inlineStr">
         <is>
           <t>PT-5597</t>
         </is>
       </c>
-      <c r="L107" s="106" t="inlineStr">
+      <c r="L107" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7606,17 +7591,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J108" s="105" t="inlineStr">
+      <c r="J108" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K108" s="105" t="inlineStr">
+      <c r="K108" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L108" s="106" t="inlineStr">
+      <c r="L108" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7671,17 +7656,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J109" s="105" t="inlineStr">
+      <c r="J109" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K109" s="105" t="inlineStr">
+      <c r="K109" s="106" t="inlineStr">
         <is>
           <t>BT-8647</t>
         </is>
       </c>
-      <c r="L109" s="106" t="inlineStr">
+      <c r="L109" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7736,17 +7721,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J110" s="105" t="inlineStr">
+      <c r="J110" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K110" s="105" t="inlineStr">
+      <c r="K110" s="106" t="inlineStr">
         <is>
           <t>DD-8073</t>
         </is>
       </c>
-      <c r="L110" s="106" t="inlineStr">
+      <c r="L110" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7801,17 +7786,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J111" s="105" t="inlineStr">
+      <c r="J111" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K111" s="105" t="inlineStr">
+      <c r="K111" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L111" s="106" t="inlineStr">
+      <c r="L111" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7866,17 +7851,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J112" s="105" t="inlineStr">
+      <c r="J112" s="106" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K112" s="105" t="inlineStr">
+      <c r="K112" s="106" t="inlineStr">
         <is>
           <t>7362</t>
         </is>
       </c>
-      <c r="L112" s="106" t="inlineStr">
+      <c r="L112" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7931,17 +7916,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J113" s="105" t="inlineStr">
+      <c r="J113" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K113" s="105" t="inlineStr">
+      <c r="K113" s="106" t="inlineStr">
         <is>
           <t>PU-9419</t>
         </is>
       </c>
-      <c r="L113" s="106" t="inlineStr">
+      <c r="L113" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7996,17 +7981,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J114" s="105" t="inlineStr">
+      <c r="J114" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K114" s="105" t="inlineStr">
+      <c r="K114" s="106" t="inlineStr">
         <is>
           <t>PU-3107</t>
         </is>
       </c>
-      <c r="L114" s="106" t="inlineStr">
+      <c r="L114" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8061,17 +8046,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J115" s="105" t="inlineStr">
+      <c r="J115" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K115" s="105" t="inlineStr">
+      <c r="K115" s="106" t="inlineStr">
         <is>
           <t>PU-7847</t>
         </is>
       </c>
-      <c r="L115" s="106" t="inlineStr">
+      <c r="L115" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8126,17 +8111,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J116" s="105" t="inlineStr">
+      <c r="J116" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K116" s="105" t="inlineStr">
+      <c r="K116" s="106" t="inlineStr">
         <is>
           <t>PU-3546</t>
         </is>
       </c>
-      <c r="L116" s="106" t="inlineStr">
+      <c r="L116" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8191,17 +8176,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J117" s="105" t="inlineStr">
+      <c r="J117" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K117" s="105" t="inlineStr">
+      <c r="K117" s="106" t="inlineStr">
         <is>
           <t>BT-1040</t>
         </is>
       </c>
-      <c r="L117" s="106" t="inlineStr">
+      <c r="L117" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8256,17 +8241,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J118" s="105" t="inlineStr">
+      <c r="J118" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K118" s="105" t="inlineStr">
+      <c r="K118" s="106" t="inlineStr">
         <is>
           <t>DD-4031</t>
         </is>
       </c>
-      <c r="L118" s="106" t="inlineStr">
+      <c r="L118" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8321,17 +8306,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J119" s="105" t="inlineStr">
+      <c r="J119" s="106" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K119" s="105" t="inlineStr">
+      <c r="K119" s="106" t="inlineStr">
         <is>
           <t>PT-4031</t>
         </is>
       </c>
-      <c r="L119" s="106" t="inlineStr">
+      <c r="L119" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8386,17 +8371,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J120" s="105" t="inlineStr">
+      <c r="J120" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K120" s="105" t="inlineStr">
+      <c r="K120" s="106" t="inlineStr">
         <is>
           <t>PU-5570</t>
         </is>
       </c>
-      <c r="L120" s="106" t="inlineStr">
+      <c r="L120" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8451,17 +8436,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J121" s="105" t="inlineStr">
+      <c r="J121" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K121" s="105" t="inlineStr">
+      <c r="K121" s="106" t="inlineStr">
         <is>
           <t>BT-9476</t>
         </is>
       </c>
-      <c r="L121" s="106" t="inlineStr">
+      <c r="L121" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8516,17 +8501,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J122" s="105" t="inlineStr">
+      <c r="J122" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K122" s="105" t="inlineStr">
+      <c r="K122" s="106" t="inlineStr">
         <is>
           <t>DD-4663</t>
         </is>
       </c>
-      <c r="L122" s="106" t="inlineStr">
+      <c r="L122" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8581,17 +8566,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J123" s="105" t="inlineStr">
+      <c r="J123" s="106" t="inlineStr">
         <is>
           <t>Rear Property Machine</t>
         </is>
       </c>
-      <c r="K123" s="105" t="inlineStr">
+      <c r="K123" s="106" t="inlineStr">
         <is>
           <t>BYM-2167</t>
         </is>
       </c>
-      <c r="L123" s="106" t="inlineStr">
+      <c r="L123" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8646,17 +8631,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J124" s="105" t="inlineStr">
+      <c r="J124" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K124" s="105" t="inlineStr">
+      <c r="K124" s="106" t="inlineStr">
         <is>
           <t>PU-0577</t>
         </is>
       </c>
-      <c r="L124" s="106" t="inlineStr">
+      <c r="L124" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8711,17 +8696,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J125" s="105" t="inlineStr">
+      <c r="J125" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K125" s="105" t="inlineStr">
+      <c r="K125" s="106" t="inlineStr">
         <is>
           <t>BT-2922</t>
         </is>
       </c>
-      <c r="L125" s="106" t="inlineStr">
+      <c r="L125" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8776,17 +8761,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J126" s="105" t="inlineStr">
+      <c r="J126" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K126" s="105" t="inlineStr">
+      <c r="K126" s="106" t="inlineStr">
         <is>
           <t>DD-8619</t>
         </is>
       </c>
-      <c r="L126" s="106" t="inlineStr">
+      <c r="L126" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8841,17 +8826,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J127" s="105" t="inlineStr">
+      <c r="J127" s="106" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K127" s="105" t="inlineStr">
+      <c r="K127" s="106" t="inlineStr">
         <is>
           <t>PT-4097</t>
         </is>
       </c>
-      <c r="L127" s="106" t="inlineStr">
+      <c r="L127" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8906,17 +8891,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J128" s="105" t="inlineStr">
+      <c r="J128" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K128" s="105" t="inlineStr">
+      <c r="K128" s="106" t="inlineStr">
         <is>
           <t>PU-0021</t>
         </is>
       </c>
-      <c r="L128" s="106" t="inlineStr">
+      <c r="L128" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8971,17 +8956,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J129" s="105" t="inlineStr">
+      <c r="J129" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K129" s="105" t="inlineStr">
+      <c r="K129" s="106" t="inlineStr">
         <is>
           <t>BT-4193</t>
         </is>
       </c>
-      <c r="L129" s="106" t="inlineStr">
+      <c r="L129" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9036,17 +9021,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J130" s="105" t="inlineStr">
+      <c r="J130" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K130" s="105" t="inlineStr">
+      <c r="K130" s="106" t="inlineStr">
         <is>
           <t>BT-5317</t>
         </is>
       </c>
-      <c r="L130" s="106" t="inlineStr">
+      <c r="L130" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9101,17 +9086,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J131" s="105" t="inlineStr">
+      <c r="J131" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K131" s="105" t="inlineStr">
+      <c r="K131" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L131" s="106" t="inlineStr">
+      <c r="L131" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9166,17 +9151,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J132" s="105" t="inlineStr">
+      <c r="J132" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K132" s="105" t="inlineStr">
+      <c r="K132" s="106" t="inlineStr">
         <is>
           <t>PU-4716</t>
         </is>
       </c>
-      <c r="L132" s="106" t="inlineStr">
+      <c r="L132" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9231,17 +9216,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J133" s="105" t="inlineStr">
+      <c r="J133" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K133" s="105" t="inlineStr">
+      <c r="K133" s="106" t="inlineStr">
         <is>
           <t>BT-5584</t>
         </is>
       </c>
-      <c r="L133" s="106" t="inlineStr">
+      <c r="L133" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9296,17 +9281,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J134" s="105" t="inlineStr">
+      <c r="J134" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K134" s="105" t="inlineStr">
+      <c r="K134" s="106" t="inlineStr">
         <is>
           <t>BT-5898</t>
         </is>
       </c>
-      <c r="L134" s="106" t="inlineStr">
+      <c r="L134" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9361,17 +9346,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J135" s="105" t="inlineStr">
+      <c r="J135" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K135" s="105" t="inlineStr">
+      <c r="K135" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L135" s="106" t="inlineStr">
+      <c r="L135" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9426,17 +9411,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J136" s="105" t="inlineStr">
+      <c r="J136" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K136" s="105" t="inlineStr">
+      <c r="K136" s="106" t="inlineStr">
         <is>
           <t>PU-9627</t>
         </is>
       </c>
-      <c r="L136" s="106" t="inlineStr">
+      <c r="L136" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9491,17 +9476,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J137" s="105" t="inlineStr">
+      <c r="J137" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K137" s="105" t="inlineStr">
+      <c r="K137" s="106" t="inlineStr">
         <is>
           <t>PU-7970</t>
         </is>
       </c>
-      <c r="L137" s="106" t="inlineStr">
+      <c r="L137" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9556,17 +9541,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J138" s="105" t="inlineStr">
+      <c r="J138" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K138" s="105" t="inlineStr">
+      <c r="K138" s="106" t="inlineStr">
         <is>
           <t>BT-5981</t>
         </is>
       </c>
-      <c r="L138" s="106" t="inlineStr">
+      <c r="L138" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9621,17 +9606,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J139" s="105" t="inlineStr">
+      <c r="J139" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K139" s="105" t="inlineStr">
+      <c r="K139" s="106" t="inlineStr">
         <is>
           <t>DD-5320</t>
         </is>
       </c>
-      <c r="L139" s="106" t="inlineStr">
+      <c r="L139" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9686,17 +9671,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J140" s="105" t="inlineStr">
+      <c r="J140" s="106" t="inlineStr">
         <is>
           <t>Rear Property Machine</t>
         </is>
       </c>
-      <c r="K140" s="105" t="inlineStr">
+      <c r="K140" s="106" t="inlineStr">
         <is>
           <t>BYM-1851L</t>
         </is>
       </c>
-      <c r="L140" s="106" t="inlineStr">
+      <c r="L140" s="107" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -9751,17 +9736,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J141" s="105" t="inlineStr">
+      <c r="J141" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K141" s="105" t="inlineStr">
+      <c r="K141" s="106" t="inlineStr">
         <is>
           <t>PU-5840</t>
         </is>
       </c>
-      <c r="L141" s="106" t="inlineStr">
+      <c r="L141" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9816,17 +9801,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J142" s="105" t="inlineStr">
+      <c r="J142" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K142" s="105" t="inlineStr">
+      <c r="K142" s="106" t="inlineStr">
         <is>
           <t>BT-5997</t>
         </is>
       </c>
-      <c r="L142" s="106" t="inlineStr">
+      <c r="L142" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9881,17 +9866,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J143" s="105" t="inlineStr">
+      <c r="J143" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K143" s="105" t="inlineStr">
+      <c r="K143" s="106" t="inlineStr">
         <is>
           <t>DD-8650</t>
         </is>
       </c>
-      <c r="L143" s="106" t="inlineStr">
+      <c r="L143" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9946,17 +9931,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J144" s="105" t="inlineStr">
+      <c r="J144" s="106" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K144" s="105" t="inlineStr">
+      <c r="K144" s="106" t="inlineStr">
         <is>
           <t>PT-4126</t>
         </is>
       </c>
-      <c r="L144" s="106" t="inlineStr">
+      <c r="L144" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10011,17 +9996,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J145" s="105" t="inlineStr">
+      <c r="J145" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K145" s="105" t="inlineStr">
+      <c r="K145" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L145" s="106" t="inlineStr">
+      <c r="L145" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10076,17 +10061,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J146" s="105" t="inlineStr">
+      <c r="J146" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K146" s="105" t="inlineStr">
+      <c r="K146" s="106" t="inlineStr">
         <is>
           <t>PU-5579</t>
         </is>
       </c>
-      <c r="L146" s="106" t="inlineStr">
+      <c r="L146" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10141,17 +10126,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J147" s="105" t="inlineStr">
+      <c r="J147" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K147" s="105" t="inlineStr">
+      <c r="K147" s="106" t="inlineStr">
         <is>
           <t>BT-7139</t>
         </is>
       </c>
-      <c r="L147" s="106" t="inlineStr">
+      <c r="L147" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10206,17 +10191,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J148" s="105" t="inlineStr">
+      <c r="J148" s="106" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K148" s="105" t="inlineStr">
+      <c r="K148" s="106" t="inlineStr">
         <is>
           <t>DD-8672</t>
         </is>
       </c>
-      <c r="L148" s="106" t="inlineStr">
+      <c r="L148" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10271,17 +10256,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J149" s="105" t="inlineStr">
+      <c r="J149" s="106" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K149" s="105" t="inlineStr">
+      <c r="K149" s="106" t="inlineStr">
         <is>
           <t>PT-5405</t>
         </is>
       </c>
-      <c r="L149" s="106" t="inlineStr">
+      <c r="L149" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10336,17 +10321,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J150" s="105" t="inlineStr">
+      <c r="J150" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K150" s="105" t="inlineStr">
+      <c r="K150" s="106" t="inlineStr">
         <is>
           <t>PU-7977</t>
         </is>
       </c>
-      <c r="L150" s="106" t="inlineStr">
+      <c r="L150" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10401,17 +10386,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J151" s="105" t="inlineStr">
+      <c r="J151" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K151" s="105" t="inlineStr">
+      <c r="K151" s="106" t="inlineStr">
         <is>
           <t>BT-6669</t>
         </is>
       </c>
-      <c r="L151" s="106" t="inlineStr">
+      <c r="L151" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10466,17 +10451,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J152" s="105" t="inlineStr">
+      <c r="J152" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K152" s="105" t="inlineStr">
+      <c r="K152" s="106" t="inlineStr">
         <is>
           <t>BT-7465</t>
         </is>
       </c>
-      <c r="L152" s="106" t="inlineStr">
+      <c r="L152" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10531,17 +10516,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J153" s="105" t="inlineStr">
+      <c r="J153" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K153" s="105" t="inlineStr">
+      <c r="K153" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L153" s="106" t="inlineStr">
+      <c r="L153" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10596,17 +10581,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J154" s="105" t="inlineStr">
+      <c r="J154" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K154" s="105" t="inlineStr">
+      <c r="K154" s="106" t="inlineStr">
         <is>
           <t>BT-6080</t>
         </is>
       </c>
-      <c r="L154" s="106" t="inlineStr">
+      <c r="L154" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10661,17 +10646,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J155" s="105" t="inlineStr">
+      <c r="J155" s="106" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K155" s="105" t="inlineStr">
+      <c r="K155" s="106" t="inlineStr">
         <is>
           <t>BT-9415</t>
         </is>
       </c>
-      <c r="L155" s="106" t="inlineStr">
+      <c r="L155" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10726,17 +10711,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J156" s="105" t="inlineStr">
+      <c r="J156" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K156" s="105" t="inlineStr">
+      <c r="K156" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L156" s="106" t="inlineStr">
+      <c r="L156" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10791,17 +10776,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J157" s="105" t="inlineStr">
+      <c r="J157" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K157" s="105" t="inlineStr">
+      <c r="K157" s="106" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L157" s="106" t="inlineStr">
+      <c r="L157" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10856,17 +10841,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J158" s="105" t="inlineStr">
+      <c r="J158" s="106" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="K158" s="105" t="inlineStr">
+      <c r="K158" s="106" t="inlineStr">
         <is>
           <t>SM1/3150</t>
         </is>
       </c>
-      <c r="L158" s="106" t="inlineStr">
+      <c r="L158" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10921,17 +10906,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J159" s="105" t="inlineStr">
+      <c r="J159" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K159" s="105" t="inlineStr">
+      <c r="K159" s="106" t="inlineStr">
         <is>
           <t>PU-8749</t>
         </is>
       </c>
-      <c r="L159" s="106" t="inlineStr">
+      <c r="L159" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -10986,17 +10971,17 @@
           <t>Union</t>
         </is>
       </c>
-      <c r="J160" s="105" t="inlineStr">
+      <c r="J160" s="106" t="inlineStr">
         <is>
           <t>Pick-up</t>
         </is>
       </c>
-      <c r="K160" s="105" t="inlineStr">
+      <c r="K160" s="106" t="inlineStr">
         <is>
           <t>PU-3052</t>
         </is>
       </c>
-      <c r="L160" s="106" t="inlineStr">
+      <c r="L160" s="107" t="inlineStr">
         <is>
           <t>M</t>
         </is>
